--- a/AAII_Financials/Yearly/SKBSY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKBSY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>SKBSY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1479,26 +1479,26 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1506,26 +1506,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1533,26 +1533,26 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1560,26 +1560,26 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1587,26 +1587,26 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1614,26 +1614,26 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1641,26 +1641,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1668,26 +1668,26 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1695,26 +1695,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1776,26 +1776,26 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1830,26 +1830,26 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1883,26 +1883,26 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1910,26 +1910,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1937,26 +1937,26 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1964,26 +1964,26 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -2018,26 +2018,26 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2126,26 +2126,26 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2274,26 +2274,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2382,26 +2382,26 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3"/>
     </row>
